--- a/src/main/java/tools/excel/testResultater_uke_11_20 samlet.xlsx
+++ b/src/main/java/tools/excel/testResultater_uke_11_20 samlet.xlsx
@@ -1,34 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebar\Dropbox\Rowing\2019-2020\NR docs 20\20-11 tester\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Documents\Programmering\is20X\src\main\java\tools\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F031E7AD-4068-4E3F-90F3-BC638D16D81D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A147EE3A-E350-4A5A-A72B-06E0445C1A34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="1380" windowWidth="14340" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Para" sheetId="10" r:id="rId1"/>
-    <sheet name="Senior menn" sheetId="1" r:id="rId2"/>
-    <sheet name="Senior kvinner" sheetId="2" r:id="rId3"/>
-    <sheet name="Jun A gutter" sheetId="3" r:id="rId4"/>
-    <sheet name="Jun A jenter" sheetId="4" r:id="rId5"/>
-    <sheet name="Jun B gutter" sheetId="5" r:id="rId6"/>
-    <sheet name="Jun B jenter" sheetId="6" r:id="rId7"/>
-    <sheet name="Jun C gutter" sheetId="7" r:id="rId8"/>
-    <sheet name="Jun C jenter" sheetId="8" r:id="rId9"/>
+    <sheet name="Senior menn" sheetId="1" r:id="rId1"/>
+    <sheet name="Senior kvinner" sheetId="2" r:id="rId2"/>
+    <sheet name="Jun A gutter" sheetId="3" r:id="rId3"/>
+    <sheet name="Jun A jenter" sheetId="4" r:id="rId4"/>
+    <sheet name="Jun B gutter" sheetId="5" r:id="rId5"/>
+    <sheet name="Jun B jenter" sheetId="6" r:id="rId6"/>
+    <sheet name="Jun C gutter" sheetId="7" r:id="rId7"/>
+    <sheet name="Jun C jenter" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Jun C gutter'!$A$2:$H$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Jun C jenter'!$A$2:$H$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Para!$B$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Jun C gutter'!$A$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Jun C jenter'!$A$2:$H$2</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -43,10 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="325">
-  <si>
-    <t>NR testresultater Para roere</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="320">
   <si>
     <t>År: 2020</t>
   </si>
@@ -69,19 +64,7 @@
     <t>Watt</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Ragnhild M. Jacobsen</t>
-  </si>
-  <si>
     <t>Stavanger</t>
-  </si>
-  <si>
-    <t>1000m</t>
-  </si>
-  <si>
-    <t>Hedda Haldorsdottir</t>
   </si>
   <si>
     <t>NR ranking senior menn</t>
@@ -1190,7 +1173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1281,15 +1264,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1299,7 +1273,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="257">
+  <cellXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1990,18 +1964,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2022,10 +1984,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Comma" xfId="5" builtinId="3"/>
     <cellStyle name="Currency 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Excel Built-in Normal 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Komma" xfId="5" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
@@ -2043,7 +2005,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2362,418 +2324,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="8.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="30" style="56" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="56"/>
-    <col min="4" max="8" width="11.42578125" style="4"/>
-    <col min="9" max="9" width="12.7109375" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15.75">
-      <c r="A1" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="95" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75">
-      <c r="A2" s="252" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="252" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="97" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="97" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="97" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="247"/>
-      <c r="H2" s="248"/>
-      <c r="I2" s="248"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="20">
-        <v>1991</v>
-      </c>
-      <c r="B3" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="84">
-        <v>3.1076388888888885E-3</v>
-      </c>
-      <c r="E3" s="10">
-        <v>145</v>
-      </c>
-      <c r="F3" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="249"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="15"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="20">
-        <v>2003</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="84">
-        <v>3.5497685185185181E-3</v>
-      </c>
-      <c r="E4" s="10">
-        <v>73</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="250"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="10"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="166"/>
-      <c r="I5" s="166"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="20"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="250"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="143"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="105"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="250"/>
-      <c r="H7" s="143"/>
-      <c r="I7" s="143"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="16"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="250"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="143"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="10"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="250"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="143"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="64"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="250"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="143"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="64"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="250"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="143"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="10"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="250"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="143"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="10"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="250"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="143"/>
-      <c r="J13" s="15"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="134"/>
-      <c r="B14" s="153"/>
-      <c r="C14" s="153"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="143"/>
-      <c r="J14" s="15"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="241"/>
-      <c r="B15" s="159"/>
-      <c r="C15" s="243"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="15"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="143"/>
-      <c r="B16" s="163"/>
-      <c r="C16" s="163"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="242"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="143"/>
-      <c r="B17" s="163"/>
-      <c r="C17" s="163"/>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="143"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="143"/>
-      <c r="B18" s="163"/>
-      <c r="C18" s="163"/>
-      <c r="D18" s="143"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="143"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="143"/>
-      <c r="B19" s="163"/>
-      <c r="C19" s="163"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="143"/>
-      <c r="B20" s="163"/>
-      <c r="C20" s="163"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="143"/>
-      <c r="B21" s="163"/>
-      <c r="C21" s="163"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="143"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="233"/>
-      <c r="B22" s="204"/>
-      <c r="C22" s="234"/>
-      <c r="D22" s="143"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="143"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="233"/>
-      <c r="B23" s="129"/>
-      <c r="C23" s="204"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="244"/>
-      <c r="G23" s="244"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="244"/>
-    </row>
-    <row r="24" spans="1:9" s="80" customFormat="1">
-      <c r="B24" s="109"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-    </row>
-    <row r="25" spans="1:9" s="80" customFormat="1">
-      <c r="B25" s="109"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-    </row>
-    <row r="26" spans="1:9" s="80" customFormat="1">
-      <c r="B26" s="109"/>
-    </row>
-    <row r="27" spans="1:9" s="80" customFormat="1">
-      <c r="B27" s="109"/>
-    </row>
-    <row r="28" spans="1:9" s="80" customFormat="1">
-      <c r="B28" s="109"/>
-    </row>
-    <row r="29" spans="1:9" s="80" customFormat="1">
-      <c r="B29" s="109"/>
-    </row>
-    <row r="30" spans="1:9" s="80" customFormat="1">
-      <c r="B30" s="109"/>
-    </row>
-    <row r="31" spans="1:9" s="80" customFormat="1">
-      <c r="B31" s="109"/>
-    </row>
-    <row r="32" spans="1:9" s="80" customFormat="1">
-      <c r="B32" s="109"/>
-    </row>
-    <row r="33" spans="1:9" s="80" customFormat="1">
-      <c r="B33" s="109"/>
-    </row>
-    <row r="34" spans="1:9" s="80" customFormat="1">
-      <c r="B34" s="109"/>
-    </row>
-    <row r="35" spans="1:9" s="80" customFormat="1">
-      <c r="B35" s="109"/>
-    </row>
-    <row r="36" spans="1:9" s="80" customFormat="1">
-      <c r="B36" s="109"/>
-    </row>
-    <row r="37" spans="1:9" s="80" customFormat="1">
-      <c r="B37" s="109"/>
-    </row>
-    <row r="38" spans="1:9" s="80" customFormat="1">
-      <c r="B38" s="109"/>
-    </row>
-    <row r="39" spans="1:9" s="80" customFormat="1">
-      <c r="B39" s="109"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="6"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="7"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="7"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O112"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
@@ -2782,15 +2338,15 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75">
       <c r="A1" s="95" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B1" s="96"/>
       <c r="C1" s="95"/>
       <c r="D1" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="95" t="s">
         <v>1</v>
-      </c>
-      <c r="E1" s="95" t="s">
-        <v>2</v>
       </c>
       <c r="F1" s="95"/>
       <c r="G1" s="96"/>
@@ -2804,57 +2360,57 @@
       <c r="O1" s="96"/>
     </row>
     <row r="2" spans="1:15" ht="15.75">
-      <c r="A2" s="252"/>
-      <c r="B2" s="252"/>
+      <c r="A2" s="248"/>
+      <c r="B2" s="248"/>
       <c r="C2" s="97"/>
       <c r="D2" s="97"/>
       <c r="E2" s="97"/>
       <c r="F2" s="97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="97" t="s">
-        <v>7</v>
-      </c>
       <c r="I2" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="97" t="s">
-        <v>7</v>
-      </c>
       <c r="K2" s="97" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L2" s="97" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M2" s="97" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N2" s="97" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O2" s="97" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75">
-      <c r="A3" s="252" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="252" t="s">
-        <v>18</v>
+      <c r="A3" s="248" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="248" t="s">
+        <v>13</v>
       </c>
       <c r="C3" s="97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="98" t="s">
+      <c r="E3" s="98" t="s">
         <v>4</v>
-      </c>
-      <c r="E3" s="98" t="s">
-        <v>5</v>
       </c>
       <c r="F3" s="98">
         <v>5000</v>
@@ -2869,22 +2425,22 @@
         <v>2000</v>
       </c>
       <c r="J3" s="97" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K3" s="97" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L3" s="97" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M3" s="97" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N3" s="97" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O3" s="97" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2898,10 +2454,10 @@
         <v>2001</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F4" s="94">
         <v>350.94670355494907</v>
@@ -2945,10 +2501,10 @@
         <v>2001</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5" s="81" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F5" s="92">
         <v>307.85130146775879</v>
@@ -2992,10 +2548,10 @@
         <v>1999</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E6" s="81" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F6" s="92">
         <v>407.57888861773222</v>
@@ -3027,10 +2583,10 @@
         <v>1993</v>
       </c>
       <c r="D7" s="81" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E7" s="81" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F7" s="92">
         <v>337.79658649724888</v>
@@ -3042,7 +2598,7 @@
         <v>391.60749147940288</v>
       </c>
       <c r="I7" s="101" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J7" s="8">
         <v>580</v>
@@ -3066,10 +2622,10 @@
         <v>1999</v>
       </c>
       <c r="D8" s="128" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F8" s="89">
         <v>354.12714983772258</v>
@@ -3101,10 +2657,10 @@
         <v>2001</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E9" s="81" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F9" s="94">
         <v>334.11807281830284</v>
@@ -3136,10 +2692,10 @@
         <v>2001</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F10" s="92"/>
       <c r="G10" s="101"/>
@@ -3179,10 +2735,10 @@
         <v>1996</v>
       </c>
       <c r="D11" s="81" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E11" s="81" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F11" s="89"/>
       <c r="G11" s="101"/>
@@ -3210,10 +2766,10 @@
         <v>1998</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F12" s="94"/>
       <c r="G12" s="101"/>
@@ -3241,10 +2797,10 @@
         <v>1997</v>
       </c>
       <c r="D13" s="81" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E13" s="81" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F13" s="92"/>
       <c r="G13" s="103"/>
@@ -3272,10 +2828,10 @@
         <v>1996</v>
       </c>
       <c r="D14" s="81" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E14" s="81" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F14" s="89"/>
       <c r="G14" s="101"/>
@@ -3283,7 +2839,7 @@
         <v>410.16258230544133</v>
       </c>
       <c r="I14" s="101" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="83"/>
@@ -3303,10 +2859,10 @@
         <v>1994</v>
       </c>
       <c r="D15" s="81" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E15" s="81" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F15" s="92"/>
       <c r="G15" s="101"/>
@@ -3334,10 +2890,10 @@
         <v>2000</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F16" s="92"/>
       <c r="G16" s="101"/>
@@ -3365,10 +2921,10 @@
         <v>1997</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F17" s="89"/>
       <c r="G17" s="102"/>
@@ -3376,7 +2932,7 @@
         <v>394.36456151442155</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J17" s="26"/>
       <c r="K17" s="83"/>
@@ -3396,10 +2952,10 @@
         <v>1998</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E18" s="81" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F18" s="92"/>
       <c r="G18" s="101"/>
@@ -3427,10 +2983,10 @@
         <v>2000</v>
       </c>
       <c r="D19" s="128" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F19" s="28"/>
       <c r="G19" s="26"/>
@@ -3458,10 +3014,10 @@
         <v>1996</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E20" s="81" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F20" s="89"/>
       <c r="G20" s="24"/>
@@ -3489,10 +3045,10 @@
         <v>2001</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E21" s="81" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F21" s="92">
         <v>306.96810997829544</v>
@@ -3520,10 +3076,10 @@
         <v>1998</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F22" s="94"/>
       <c r="G22" s="103"/>
@@ -3531,7 +3087,7 @@
         <v>367.91284575877836</v>
       </c>
       <c r="I22" s="101" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="83"/>
@@ -3551,10 +3107,10 @@
         <v>2001</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F23" s="94">
         <v>299.16935436787054</v>
@@ -3582,10 +3138,10 @@
         <v>1971</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F24" s="92">
         <v>298.23436227202973</v>
@@ -3613,10 +3169,10 @@
         <v>2000</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E25" s="81" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F25" s="92"/>
       <c r="G25" s="103"/>
@@ -3644,10 +3200,10 @@
         <v>2000</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E26" s="81" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F26" s="92"/>
       <c r="G26" s="101"/>
@@ -3675,10 +3231,10 @@
         <v>1996</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E27" s="81" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F27" s="92"/>
       <c r="G27" s="101"/>
@@ -3686,7 +3242,7 @@
         <v>341.98702079069307</v>
       </c>
       <c r="I27" s="101" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="83"/>
@@ -3706,10 +3262,10 @@
         <v>1996</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E28" s="81" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F28" s="92"/>
       <c r="G28" s="101"/>
@@ -3717,7 +3273,7 @@
         <v>332.74013278078655</v>
       </c>
       <c r="I28" s="101" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J28" s="8"/>
       <c r="K28" s="83"/>
@@ -3737,10 +3293,10 @@
         <v>1997</v>
       </c>
       <c r="D29" s="81" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E29" s="81" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F29" s="92"/>
       <c r="G29" s="101"/>
@@ -3748,7 +3304,7 @@
         <v>311.59792959285392</v>
       </c>
       <c r="I29" s="101" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J29" s="8"/>
       <c r="K29" s="83"/>
@@ -3768,10 +3324,10 @@
         <v>1997</v>
       </c>
       <c r="D30" s="81" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F30" s="92"/>
       <c r="G30" s="101"/>
@@ -3779,7 +3335,7 @@
         <v>306.92403913562066</v>
       </c>
       <c r="I30" s="101" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J30" s="8"/>
       <c r="K30" s="83"/>
@@ -3799,10 +3355,10 @@
         <v>1997</v>
       </c>
       <c r="D31" s="81" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E31" s="81" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F31" s="92"/>
       <c r="G31" s="101"/>
@@ -3810,7 +3366,7 @@
         <v>302.99196432821481</v>
       </c>
       <c r="I31" s="101" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J31" s="8"/>
       <c r="K31" s="83"/>
@@ -4047,13 +3603,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
@@ -4063,16 +3619,16 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75">
       <c r="A1" s="95" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B1" s="96"/>
       <c r="C1" s="95"/>
       <c r="D1" s="96"/>
       <c r="E1" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="95" t="s">
         <v>1</v>
-      </c>
-      <c r="F1" s="95" t="s">
-        <v>2</v>
       </c>
       <c r="G1" s="96"/>
       <c r="H1" s="96"/>
@@ -4085,57 +3641,57 @@
       <c r="O1" s="96"/>
     </row>
     <row r="2" spans="1:15" ht="15.75">
-      <c r="A2" s="252"/>
-      <c r="B2" s="252"/>
+      <c r="A2" s="248"/>
+      <c r="B2" s="248"/>
       <c r="C2" s="97"/>
       <c r="D2" s="97"/>
       <c r="E2" s="97"/>
       <c r="F2" s="97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="97" t="s">
-        <v>7</v>
-      </c>
       <c r="I2" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="97" t="s">
-        <v>7</v>
-      </c>
       <c r="K2" s="97" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L2" s="97" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M2" s="97" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N2" s="97" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O2" s="97" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75">
-      <c r="A3" s="252" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="252" t="s">
-        <v>18</v>
+      <c r="A3" s="248" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="248" t="s">
+        <v>13</v>
       </c>
       <c r="C3" s="97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="98" t="s">
+      <c r="E3" s="98" t="s">
         <v>4</v>
-      </c>
-      <c r="E3" s="98" t="s">
-        <v>5</v>
       </c>
       <c r="F3" s="98">
         <v>5000</v>
@@ -4150,22 +3706,22 @@
         <v>2000</v>
       </c>
       <c r="J3" s="97" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K3" s="97" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L3" s="97" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M3" s="97" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N3" s="97" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O3" s="97" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4179,10 +3735,10 @@
         <v>2001</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F4" s="92">
         <v>193.50775451640101</v>
@@ -4224,10 +3780,10 @@
         <v>1998</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F5" s="92">
         <v>226.38959754298529</v>
@@ -4259,10 +3815,10 @@
         <v>2001</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E6" s="82" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F6" s="92">
         <v>182.86177565359523</v>
@@ -4296,10 +3852,10 @@
         <v>2001</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F7" s="92">
         <v>192.84223547312678</v>
@@ -4331,10 +3887,10 @@
         <v>2001</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F8" s="92">
         <v>206.28820010100796</v>
@@ -4366,10 +3922,10 @@
         <v>1997</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F9" s="94"/>
       <c r="G9" s="93"/>
@@ -4377,7 +3933,7 @@
         <v>265.4863130775127</v>
       </c>
       <c r="I9" s="91" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="85"/>
@@ -4397,10 +3953,10 @@
         <v>1999</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E10" s="82" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F10" s="92"/>
       <c r="G10" s="91"/>
@@ -4428,10 +3984,10 @@
         <v>1999</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F11" s="92"/>
       <c r="G11" s="91"/>
@@ -4459,10 +4015,10 @@
         <v>1995</v>
       </c>
       <c r="D12" s="81" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F12" s="92"/>
       <c r="G12" s="93"/>
@@ -4470,7 +4026,7 @@
         <v>215.47661476622702</v>
       </c>
       <c r="I12" s="93" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="83"/>
@@ -4490,10 +4046,10 @@
         <v>1999</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F13" s="92"/>
       <c r="G13" s="93"/>
@@ -4501,7 +4057,7 @@
         <v>210.3357010372479</v>
       </c>
       <c r="I13" s="93" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J13" s="17"/>
       <c r="K13" s="85"/>
@@ -4521,10 +4077,10 @@
         <v>2001</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F14" s="92">
         <v>162.81449332188939</v>
@@ -4550,10 +4106,10 @@
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F15" s="92"/>
       <c r="G15" s="93"/>
@@ -4561,7 +4117,7 @@
         <v>207.17281154514365</v>
       </c>
       <c r="I15" s="93" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J15" s="17"/>
       <c r="K15" s="85"/>
@@ -4579,10 +4135,10 @@
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="61" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F16" s="92"/>
       <c r="G16" s="93"/>
@@ -4590,7 +4146,7 @@
         <v>175.1755657803015</v>
       </c>
       <c r="I16" s="93" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J16" s="17"/>
       <c r="K16" s="85"/>
@@ -4608,10 +4164,10 @@
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="81" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F17" s="92"/>
       <c r="G17" s="93"/>
@@ -4619,7 +4175,7 @@
         <v>169.16250885849806</v>
       </c>
       <c r="I17" s="93" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J17" s="17"/>
       <c r="K17" s="85"/>
@@ -4736,7 +4292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q94"/>
   <sheetViews>
@@ -4744,7 +4300,7 @@
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
@@ -4753,16 +4309,16 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.75">
       <c r="A1" s="95" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B1" s="96"/>
       <c r="C1" s="95"/>
       <c r="D1" s="96"/>
       <c r="E1" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="95" t="s">
         <v>1</v>
-      </c>
-      <c r="F1" s="95" t="s">
-        <v>2</v>
       </c>
       <c r="G1" s="96"/>
       <c r="H1" s="96"/>
@@ -4775,56 +4331,56 @@
       <c r="O1" s="96"/>
     </row>
     <row r="2" spans="1:17" ht="15.75">
-      <c r="A2" s="252"/>
-      <c r="B2" s="252"/>
+      <c r="A2" s="248"/>
+      <c r="B2" s="248"/>
       <c r="C2" s="97"/>
       <c r="D2" s="97"/>
       <c r="E2" s="97"/>
       <c r="F2" s="97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="97" t="s">
-        <v>7</v>
-      </c>
       <c r="I2" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="97" t="s">
-        <v>7</v>
-      </c>
       <c r="K2" s="97" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L2" s="97" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="M2" s="97" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="N2" s="97" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="252" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="252" t="s">
-        <v>18</v>
+      <c r="A3" s="248" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="248" t="s">
+        <v>13</v>
       </c>
       <c r="C3" s="97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="98" t="s">
+      <c r="E3" s="98" t="s">
         <v>4</v>
-      </c>
-      <c r="E3" s="98" t="s">
-        <v>5</v>
       </c>
       <c r="F3" s="98">
         <v>5000</v>
@@ -4839,19 +4395,19 @@
         <v>2000</v>
       </c>
       <c r="J3" s="97" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K3" s="97" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L3" s="97" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M3" s="97" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="N3" s="97" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -4867,10 +4423,10 @@
         <v>2002</v>
       </c>
       <c r="D4" s="81" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E4" s="81" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F4" s="83">
         <v>288.20193938277373</v>
@@ -4911,10 +4467,10 @@
         <v>2002</v>
       </c>
       <c r="D5" s="112" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E5" s="112" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F5" s="113">
         <v>289.0138515910341</v>
@@ -4955,10 +4511,10 @@
         <v>2002</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F6" s="28">
         <v>302.77548996322218</v>
@@ -4997,10 +4553,10 @@
         <v>2003</v>
       </c>
       <c r="D7" s="81" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E7" s="81" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F7" s="83">
         <v>270.18984702068326</v>
@@ -5041,10 +4597,10 @@
         <v>2003</v>
       </c>
       <c r="D8" s="112" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E8" s="112" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F8" s="113">
         <v>259.40671276015132</v>
@@ -5085,10 +4641,10 @@
         <v>2003</v>
       </c>
       <c r="D9" s="81" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E9" s="81" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F9" s="83">
         <v>257.02684956745264</v>
@@ -5129,10 +4685,10 @@
         <v>2003</v>
       </c>
       <c r="D10" s="81" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F10" s="83">
         <v>246.60447944715489</v>
@@ -5173,10 +4729,10 @@
         <v>2003</v>
       </c>
       <c r="D11" s="81" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F11" s="83">
         <v>274.09361371870273</v>
@@ -5213,10 +4769,10 @@
         <v>2002</v>
       </c>
       <c r="D12" s="81" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E12" s="81" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F12" s="83">
         <v>255.29549078299576</v>
@@ -5257,10 +4813,10 @@
         <v>2003</v>
       </c>
       <c r="D13" s="81" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E13" s="81" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F13" s="83">
         <v>244.57491298303503</v>
@@ -5301,10 +4857,10 @@
         <v>2003</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F14" s="40">
         <v>256.60989909974842</v>
@@ -5341,10 +4897,10 @@
         <v>2002</v>
       </c>
       <c r="D15" s="81" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E15" s="81" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F15" s="83">
         <v>266.43283071885787</v>
@@ -5381,10 +4937,10 @@
         <v>2003</v>
       </c>
       <c r="D16" s="81" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F16" s="83">
         <v>332.44584612380635</v>
@@ -5411,10 +4967,10 @@
         <v>2002</v>
       </c>
       <c r="D17" s="81" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E17" s="81" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F17" s="83">
         <v>273.86635969771686</v>
@@ -5449,10 +5005,10 @@
         <v>2003</v>
       </c>
       <c r="D18" s="81" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F18" s="83">
         <v>341.22460264536085</v>
@@ -5479,10 +5035,10 @@
         <v>2003</v>
       </c>
       <c r="D19" s="81" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E19" s="81" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F19" s="83">
         <v>159.23464325437496</v>
@@ -5523,10 +5079,10 @@
         <v>2003</v>
       </c>
       <c r="D20" s="81" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F20" s="83">
         <v>305.21183632410231</v>
@@ -5553,10 +5109,10 @@
         <v>2002</v>
       </c>
       <c r="D21" s="81" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F21" s="83">
         <v>303.46893484717066</v>
@@ -5583,10 +5139,10 @@
         <v>2003</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F22" s="40">
         <v>207.48623480754657</v>
@@ -5619,10 +5175,10 @@
         <v>2003</v>
       </c>
       <c r="D23" s="81" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F23" s="83">
         <v>282.99793822755095</v>
@@ -5649,10 +5205,10 @@
         <v>2002</v>
       </c>
       <c r="D24" s="81" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E24" s="81" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F24" s="83"/>
       <c r="G24" s="84"/>
@@ -5689,10 +5245,10 @@
         <v>2003</v>
       </c>
       <c r="D25" s="81" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F25" s="83">
         <v>261.24646984996019</v>
@@ -5719,10 +5275,10 @@
         <v>2002</v>
       </c>
       <c r="D26" s="81" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E26" s="81" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F26" s="83">
         <v>243.86009879349515</v>
@@ -5749,16 +5305,16 @@
         <v>2003</v>
       </c>
       <c r="D27" s="81" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E27" s="81" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F27" s="83">
         <v>217.5241916015369</v>
       </c>
       <c r="G27" s="84" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H27" s="83"/>
       <c r="I27" s="84"/>
@@ -5779,10 +5335,10 @@
         <v>2003</v>
       </c>
       <c r="D28" s="81" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E28" s="81" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F28" s="83">
         <v>215.1469998777259</v>
@@ -5809,10 +5365,10 @@
         <v>2003</v>
       </c>
       <c r="D29" s="81" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E29" s="81" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F29" s="83">
         <v>208.74626923896275</v>
@@ -5839,10 +5395,10 @@
         <v>2003</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F30" s="40">
         <v>206.75589506149336</v>
@@ -5869,10 +5425,10 @@
         <v>2003</v>
       </c>
       <c r="D31" s="81" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E31" s="81" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F31" s="83">
         <v>197.41899853163824</v>
@@ -5899,10 +5455,10 @@
         <v>2003</v>
       </c>
       <c r="D32" s="81" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F32" s="83"/>
       <c r="G32" s="84"/>
@@ -5935,10 +5491,10 @@
         <v>2003</v>
       </c>
       <c r="D33" s="81" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E33" s="81" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F33" s="83"/>
       <c r="G33" s="84"/>
@@ -5965,10 +5521,10 @@
         <v>2002</v>
       </c>
       <c r="D34" s="81" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E34" s="81" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F34" s="34"/>
       <c r="G34" s="84"/>
@@ -6858,13 +6414,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
@@ -6873,16 +6429,16 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75">
       <c r="A1" s="95" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B1" s="96"/>
       <c r="C1" s="95"/>
       <c r="D1" s="96"/>
       <c r="E1" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="95" t="s">
         <v>1</v>
-      </c>
-      <c r="F1" s="95" t="s">
-        <v>2</v>
       </c>
       <c r="G1" s="96"/>
       <c r="H1" s="96"/>
@@ -6895,54 +6451,54 @@
       <c r="O1" s="96"/>
     </row>
     <row r="2" spans="1:15" ht="15.75">
-      <c r="A2" s="252"/>
-      <c r="B2" s="252"/>
+      <c r="A2" s="248"/>
+      <c r="B2" s="248"/>
       <c r="C2" s="97"/>
       <c r="D2" s="97"/>
       <c r="E2" s="97"/>
       <c r="F2" s="97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="97" t="s">
-        <v>7</v>
-      </c>
       <c r="I2" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="97" t="s">
-        <v>7</v>
-      </c>
       <c r="K2" s="97" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L2" s="97" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="M2" s="97" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="N2" s="97" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75">
-      <c r="A3" s="252" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="252" t="s">
-        <v>18</v>
+      <c r="A3" s="248" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="248" t="s">
+        <v>13</v>
       </c>
       <c r="C3" s="97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="98" t="s">
+      <c r="E3" s="98" t="s">
         <v>4</v>
-      </c>
-      <c r="E3" s="98" t="s">
-        <v>5</v>
       </c>
       <c r="F3" s="98">
         <v>5000</v>
@@ -6957,19 +6513,19 @@
         <v>2000</v>
       </c>
       <c r="J3" s="97" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K3" s="97" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L3" s="97" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M3" s="97" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="N3" s="97" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -6983,10 +6539,10 @@
         <v>2002</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F4" s="40">
         <v>212.91252648077426</v>
@@ -7027,22 +6583,22 @@
         <v>2002</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F5" s="40">
         <v>194.79992900246293</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H5" s="85">
         <v>236.39551993557569</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="J5" s="36">
         <v>445</v>
@@ -7071,10 +6627,10 @@
         <v>2003</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F6" s="83">
         <v>167.32401698948527</v>
@@ -7113,10 +6669,10 @@
         <v>2003</v>
       </c>
       <c r="D7" s="81" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F7" s="83">
         <v>164.83693163267452</v>
@@ -7149,22 +6705,22 @@
         <v>2003</v>
       </c>
       <c r="D8" s="81" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F8" s="83">
         <v>162.81449332188939</v>
       </c>
       <c r="G8" s="84" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H8" s="83">
         <v>201.78864260813501</v>
       </c>
       <c r="I8" s="84" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J8" s="83"/>
       <c r="K8" s="83"/>
@@ -7183,10 +6739,10 @@
         <v>2002</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F9" s="40">
         <v>194.17633945514413</v>
@@ -7219,10 +6775,10 @@
         <v>2003</v>
       </c>
       <c r="D10" s="81" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E10" s="81" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F10" s="83">
         <v>139.50874431667799</v>
@@ -7255,10 +6811,10 @@
         <v>2003</v>
       </c>
       <c r="D11" s="81" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E11" s="81" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F11" s="83">
         <v>119.69056910129832</v>
@@ -7295,10 +6851,10 @@
         <v>2003</v>
       </c>
       <c r="D12" s="81" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E12" s="81" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F12" s="83">
         <v>217.85867261670779</v>
@@ -7325,10 +6881,10 @@
         <v>2003</v>
       </c>
       <c r="D13" s="81" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E13" s="81" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F13" s="83">
         <v>140.2505913334808</v>
@@ -7361,10 +6917,10 @@
         <v>2003</v>
       </c>
       <c r="D14" s="116" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E14" s="81" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F14" s="83">
         <v>188.6819993380681</v>
@@ -7391,10 +6947,10 @@
         <v>2002</v>
       </c>
       <c r="D15" s="81" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E15" s="81" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F15" s="83"/>
       <c r="G15" s="84"/>
@@ -7429,10 +6985,10 @@
         <v>2003</v>
       </c>
       <c r="D16" s="81" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F16" s="83">
         <v>170.10189129385535</v>
@@ -7459,10 +7015,10 @@
         <v>2003</v>
       </c>
       <c r="D17" s="81" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F17" s="40"/>
       <c r="G17" s="84"/>
@@ -7489,10 +7045,10 @@
         <v>2002</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F18" s="40"/>
       <c r="G18" s="84"/>
@@ -7521,10 +7077,10 @@
         <v>2002</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F19" s="40"/>
       <c r="G19" s="37"/>
@@ -8217,13 +7773,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P105"/>
   <sheetViews>
     <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
@@ -8235,16 +7791,16 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75">
       <c r="A1" s="95" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B1" s="96"/>
       <c r="C1" s="95"/>
       <c r="D1" s="96"/>
       <c r="E1" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="95" t="s">
         <v>1</v>
-      </c>
-      <c r="F1" s="95" t="s">
-        <v>2</v>
       </c>
       <c r="G1" s="96"/>
       <c r="H1" s="96"/>
@@ -8258,59 +7814,59 @@
       <c r="P1" s="96"/>
     </row>
     <row r="2" spans="1:16" ht="15.75">
-      <c r="A2" s="252"/>
-      <c r="B2" s="252"/>
+      <c r="A2" s="248"/>
+      <c r="B2" s="248"/>
       <c r="C2" s="97"/>
       <c r="D2" s="97"/>
       <c r="E2" s="97"/>
-      <c r="F2" s="253">
+      <c r="F2" s="249">
         <v>3000</v>
       </c>
-      <c r="G2" s="254"/>
-      <c r="H2" s="255"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="251"/>
       <c r="I2" s="97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J2" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="97" t="s">
-        <v>7</v>
-      </c>
       <c r="L2" s="97" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M2" s="97" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="N2" s="97" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75">
-      <c r="A3" s="252" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="252" t="s">
-        <v>18</v>
+      <c r="A3" s="248" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="248" t="s">
+        <v>13</v>
       </c>
       <c r="C3" s="97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="98" t="s">
+      <c r="E3" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="98" t="s">
-        <v>5</v>
-      </c>
       <c r="F3" s="98" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G3" s="98" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H3" s="98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I3" s="97">
         <v>2000</v>
@@ -8319,16 +7875,16 @@
         <v>2000</v>
       </c>
       <c r="K3" s="97" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L3" s="97" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M3" s="97" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="N3" s="97" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -8342,10 +7898,10 @@
         <v>2004</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F4" s="8">
         <v>717</v>
@@ -8386,10 +7942,10 @@
         <v>2004</v>
       </c>
       <c r="D5" s="118" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E5" s="118" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F5" s="8">
         <v>624</v>
@@ -8404,7 +7960,7 @@
         <v>346.09184771247197</v>
       </c>
       <c r="J5" s="84" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K5" s="8">
         <v>519</v>
@@ -8430,10 +7986,10 @@
         <v>2004</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F6" s="8">
         <v>820</v>
@@ -8472,10 +8028,10 @@
         <v>2004</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E7" s="70" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F7" s="69">
         <v>761</v>
@@ -8516,10 +8072,10 @@
         <v>2006</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E8" s="70" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F8" s="69">
         <v>723</v>
@@ -8560,10 +8116,10 @@
         <v>2004</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E9" s="70" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F9" s="69">
         <v>750</v>
@@ -8604,10 +8160,10 @@
         <v>2004</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F10" s="8">
         <v>783</v>
@@ -8648,10 +8204,10 @@
         <v>2004</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F11" s="8">
         <v>663</v>
@@ -8692,10 +8248,10 @@
         <v>2004</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F12" s="8">
         <v>719</v>
@@ -8736,10 +8292,10 @@
         <v>2004</v>
       </c>
       <c r="D13" s="70" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E13" s="70" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F13" s="69">
         <v>631</v>
@@ -8780,10 +8336,10 @@
         <v>2004</v>
       </c>
       <c r="D14" s="70" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E14" s="70" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F14" s="69">
         <v>854</v>
@@ -8824,10 +8380,10 @@
         <v>2004</v>
       </c>
       <c r="D15" s="70" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E15" s="70" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F15" s="69">
         <v>686</v>
@@ -8864,10 +8420,10 @@
         <v>2006</v>
       </c>
       <c r="D16" s="70" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E16" s="70" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F16" s="69">
         <v>712</v>
@@ -8908,10 +8464,10 @@
         <v>2004</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F17" s="8">
         <v>719</v>
@@ -8944,10 +8500,10 @@
         <v>2005</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F18" s="8">
         <v>853</v>
@@ -8982,10 +8538,10 @@
         <v>2005</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F19" s="8">
         <v>875</v>
@@ -9026,10 +8582,10 @@
         <v>2004</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F20" s="8">
         <v>795</v>
@@ -9062,10 +8618,10 @@
         <v>2004</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F21" s="8">
         <v>630</v>
@@ -9098,10 +8654,10 @@
         <v>2005</v>
       </c>
       <c r="D22" s="70" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E22" s="70" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F22" s="69">
         <v>756</v>
@@ -9140,10 +8696,10 @@
         <v>2005</v>
       </c>
       <c r="D23" s="70" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E23" s="70" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F23" s="69">
         <v>784</v>
@@ -9184,10 +8740,10 @@
         <v>2004</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F24" s="8">
         <v>740</v>
@@ -9220,10 +8776,10 @@
         <v>2004</v>
       </c>
       <c r="D25" s="70" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E25" s="70" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F25" s="69">
         <v>788</v>
@@ -9258,10 +8814,10 @@
         <v>2004</v>
       </c>
       <c r="D26" s="90" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -9294,10 +8850,10 @@
         <v>2005</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F27" s="8">
         <v>673</v>
@@ -9334,10 +8890,10 @@
         <v>2005</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F28" s="8">
         <v>920</v>
@@ -9370,10 +8926,10 @@
         <v>2005</v>
       </c>
       <c r="D29" s="44" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="34"/>
@@ -9408,10 +8964,10 @@
         <v>2005</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -9446,10 +9002,10 @@
         <v>2005</v>
       </c>
       <c r="D31" s="70" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E31" s="70" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F31" s="69">
         <v>866</v>
@@ -9486,10 +9042,10 @@
         <v>2005</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F32" s="8">
         <v>696</v>
@@ -9526,10 +9082,10 @@
         <v>2005</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F33" s="8">
         <v>756</v>
@@ -9566,10 +9122,10 @@
         <v>2004</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F34" s="8">
         <v>786</v>
@@ -9604,10 +9160,10 @@
         <v>2005</v>
       </c>
       <c r="D35" s="70" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E35" s="70" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F35" s="69">
         <v>889</v>
@@ -9644,10 +9200,10 @@
         <v>2005</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -9682,10 +9238,10 @@
         <v>2005</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F37" s="8">
         <v>789</v>
@@ -9720,10 +9276,10 @@
         <v>2005</v>
       </c>
       <c r="D38" s="70" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E38" s="70" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F38" s="69">
         <v>724</v>
@@ -9758,10 +9314,10 @@
         <v>2004</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F39" s="26">
         <v>710</v>
@@ -9792,10 +9348,10 @@
         <v>2005</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -9804,7 +9360,7 @@
         <v>248.62328577360151</v>
       </c>
       <c r="J40" s="84" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="K40" s="8">
         <v>379</v>
@@ -9828,10 +9384,10 @@
         <v>2005</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -9866,10 +9422,10 @@
         <v>2005</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -9900,10 +9456,10 @@
         <v>2004</v>
       </c>
       <c r="D43" s="44" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E43" s="44" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F43" s="46">
         <v>962</v>
@@ -9934,10 +9490,10 @@
         <v>2005</v>
       </c>
       <c r="D44" s="70" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E44" s="70" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F44" s="69"/>
       <c r="G44" s="69"/>
@@ -9946,7 +9502,7 @@
         <v>209.1421217301509</v>
       </c>
       <c r="J44" s="62" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K44" s="69">
         <v>347</v>
@@ -9970,10 +9526,10 @@
         <v>2004</v>
       </c>
       <c r="D45" s="70" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E45" s="70" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F45" s="69">
         <v>673</v>
@@ -10002,10 +9558,10 @@
         <v>2004</v>
       </c>
       <c r="D46" s="70" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E46" s="70" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F46" s="69">
         <v>726</v>
@@ -10033,11 +9589,11 @@
       <c r="C47" s="70">
         <v>2005</v>
       </c>
-      <c r="D47" s="251" t="s">
-        <v>206</v>
+      <c r="D47" s="247" t="s">
+        <v>201</v>
       </c>
       <c r="E47" s="70" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F47" s="69">
         <v>766</v>
@@ -10066,10 +9622,10 @@
         <v>2005</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -10078,7 +9634,7 @@
         <v>206.65184076296217</v>
       </c>
       <c r="J48" s="84" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="K48" s="8">
         <v>316</v>
@@ -10102,10 +9658,10 @@
         <v>2005</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F49" s="8">
         <v>802</v>
@@ -10134,10 +9690,10 @@
         <v>2004</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F50" s="8">
         <v>821</v>
@@ -10166,10 +9722,10 @@
         <v>2004</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F51" s="8">
         <v>844</v>
@@ -10198,10 +9754,10 @@
         <v>2004</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F52" s="8">
         <v>861</v>
@@ -10230,10 +9786,10 @@
         <v>2005</v>
       </c>
       <c r="D53" s="44" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F53" s="8">
         <v>880</v>
@@ -10262,10 +9818,10 @@
         <v>2005</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
@@ -10274,7 +9830,7 @@
         <v>261.88736132236806</v>
       </c>
       <c r="J54" s="84" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
@@ -10292,10 +9848,10 @@
         <v>2004</v>
       </c>
       <c r="D55" s="70" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E55" s="70" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F55" s="69">
         <v>915</v>
@@ -10324,10 +9880,10 @@
         <v>2005</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F56" s="8">
         <v>944</v>
@@ -10356,10 +9912,10 @@
         <v>2004</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F57" s="8">
         <v>969</v>
@@ -10388,10 +9944,10 @@
         <v>2005</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
@@ -10428,10 +9984,10 @@
         <v>2005</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F59" s="26"/>
       <c r="G59" s="26"/>
@@ -10462,10 +10018,10 @@
         <v>2005</v>
       </c>
       <c r="D60" s="70" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E60" s="70" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F60" s="69"/>
       <c r="G60" s="69"/>
@@ -10474,7 +10030,7 @@
         <v>189.46733922570152</v>
       </c>
       <c r="J60" s="62" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="K60" s="69">
         <v>306</v>
@@ -10500,10 +10056,10 @@
         <v>2005</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
@@ -10532,10 +10088,10 @@
         <v>2004</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
@@ -10564,10 +10120,10 @@
         <v>2005</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
@@ -10596,10 +10152,10 @@
         <v>2005</v>
       </c>
       <c r="D64" s="70" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E64" s="70" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F64" s="69"/>
       <c r="G64" s="69"/>
@@ -10632,10 +10188,10 @@
         <v>2004</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
@@ -10668,10 +10224,10 @@
         <v>2005</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
@@ -10702,10 +10258,10 @@
         <v>2004</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
@@ -10734,10 +10290,10 @@
         <v>2005</v>
       </c>
       <c r="D68" s="70" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E68" s="70" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F68" s="69"/>
       <c r="G68" s="69"/>
@@ -10766,10 +10322,10 @@
         <v>2005</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
@@ -10798,10 +10354,10 @@
         <v>2005</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
@@ -11344,13 +10900,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P96"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
@@ -11361,16 +10917,16 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75">
       <c r="A1" s="95" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B1" s="96"/>
       <c r="C1" s="95"/>
       <c r="D1" s="95"/>
       <c r="E1" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="95" t="s">
         <v>1</v>
-      </c>
-      <c r="F1" s="95" t="s">
-        <v>2</v>
       </c>
       <c r="G1" s="96"/>
       <c r="H1" s="96"/>
@@ -11384,77 +10940,77 @@
       <c r="P1" s="96"/>
     </row>
     <row r="2" spans="1:16" ht="15.75">
-      <c r="A2" s="252"/>
-      <c r="B2" s="252"/>
+      <c r="A2" s="248"/>
+      <c r="B2" s="248"/>
       <c r="C2" s="97"/>
       <c r="D2" s="97"/>
       <c r="E2" s="97"/>
-      <c r="F2" s="256">
+      <c r="F2" s="252">
         <v>3000</v>
       </c>
-      <c r="G2" s="256"/>
-      <c r="H2" s="256"/>
+      <c r="G2" s="252"/>
+      <c r="H2" s="252"/>
       <c r="I2" s="117" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="252" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="252" t="s">
-        <v>7</v>
+      <c r="J2" s="248" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="248" t="s">
+        <v>6</v>
       </c>
       <c r="L2" s="97" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M2" s="97" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="N2" s="97" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75">
-      <c r="A3" s="252" t="s">
+      <c r="A3" s="248" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="248" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="248" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="248" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" s="248" t="s">
+        <v>152</v>
+      </c>
+      <c r="I3" s="248">
+        <v>2000</v>
+      </c>
+      <c r="J3" s="248">
+        <v>2000</v>
+      </c>
+      <c r="K3" s="248" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="248" t="s">
+        <v>153</v>
+      </c>
+      <c r="M3" s="219" t="s">
+        <v>92</v>
+      </c>
+      <c r="N3" s="99" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" s="252" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="97" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="98" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="252" t="s">
-        <v>155</v>
-      </c>
-      <c r="G3" s="252" t="s">
-        <v>156</v>
-      </c>
-      <c r="H3" s="252" t="s">
-        <v>157</v>
-      </c>
-      <c r="I3" s="252">
-        <v>2000</v>
-      </c>
-      <c r="J3" s="252">
-        <v>2000</v>
-      </c>
-      <c r="K3" s="252" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="252" t="s">
-        <v>158</v>
-      </c>
-      <c r="M3" s="219" t="s">
-        <v>97</v>
-      </c>
-      <c r="N3" s="99" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -11468,10 +11024,10 @@
         <v>2004</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F4" s="46">
         <v>815</v>
@@ -11510,10 +11066,10 @@
         <v>2004</v>
       </c>
       <c r="D5" s="81" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E5" s="81" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F5" s="8">
         <v>890</v>
@@ -11554,10 +11110,10 @@
         <v>2004</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F6" s="46">
         <v>883</v>
@@ -11598,10 +11154,10 @@
         <v>2004</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F7" s="36">
         <v>837</v>
@@ -11642,10 +11198,10 @@
         <v>2004</v>
       </c>
       <c r="D8" s="81" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F8" s="8">
         <v>820</v>
@@ -11680,10 +11236,10 @@
         <v>2005</v>
       </c>
       <c r="D9" s="81" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E9" s="81" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F9" s="8">
         <v>756</v>
@@ -11724,10 +11280,10 @@
         <v>2004</v>
       </c>
       <c r="D10" s="81" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E10" s="81" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F10" s="8">
         <v>976</v>
@@ -11762,10 +11318,10 @@
         <v>2004</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E11" s="70" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F11" s="51">
         <v>949</v>
@@ -11798,10 +11354,10 @@
         <v>2004</v>
       </c>
       <c r="D12" s="81" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E12" s="81" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -11834,10 +11390,10 @@
         <v>2005</v>
       </c>
       <c r="D13" s="81" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E13" s="81" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -11872,10 +11428,10 @@
         <v>2005</v>
       </c>
       <c r="D14" s="81" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E14" s="81" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F14" s="8">
         <v>871</v>
@@ -11912,10 +11468,10 @@
         <v>2004</v>
       </c>
       <c r="D15" s="81" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E15" s="81" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="71"/>
@@ -11950,10 +11506,10 @@
         <v>2005</v>
       </c>
       <c r="D16" s="81" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E16" s="81" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F16" s="8">
         <v>1002</v>
@@ -11990,10 +11546,10 @@
         <v>2004</v>
       </c>
       <c r="D17" s="81" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="71"/>
@@ -12026,10 +11582,10 @@
         <v>2005</v>
       </c>
       <c r="D18" s="81" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E18" s="81" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -12060,10 +11616,10 @@
         <v>2005</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F19" s="36"/>
       <c r="G19" s="37"/>
@@ -12096,10 +11652,10 @@
         <v>2005</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
@@ -12126,10 +11682,10 @@
         <v>2004</v>
       </c>
       <c r="D21" s="81" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E21" s="81" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -12162,10 +11718,10 @@
         <v>2004</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F22" s="46">
         <v>976</v>
@@ -12194,10 +11750,10 @@
         <v>2004</v>
       </c>
       <c r="D23" s="81" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E23" s="81" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="71"/>
@@ -12224,10 +11780,10 @@
         <v>2004</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="52"/>
@@ -12254,10 +11810,10 @@
         <v>2005</v>
       </c>
       <c r="D25" s="81" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E25" s="81" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -12290,10 +11846,10 @@
         <v>2005</v>
       </c>
       <c r="D26" s="81" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E26" s="81" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="71"/>
@@ -12320,10 +11876,10 @@
         <v>2005</v>
       </c>
       <c r="D27" s="126" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E27" s="126" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F27" s="125"/>
       <c r="G27" s="125"/>
@@ -12350,10 +11906,10 @@
         <v>2005</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E28" s="81" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="71"/>
@@ -12386,10 +11942,10 @@
         <v>2005</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="46"/>
@@ -12420,10 +11976,10 @@
         <v>2005</v>
       </c>
       <c r="D30" s="81" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E30" s="81" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="123"/>
@@ -12454,10 +12010,10 @@
         <v>2004</v>
       </c>
       <c r="D31" s="81" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E31" s="81" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -12488,10 +12044,10 @@
         <v>2004</v>
       </c>
       <c r="D32" s="81" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E32" s="81" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="71"/>
@@ -12522,10 +12078,10 @@
         <v>2004</v>
       </c>
       <c r="D33" s="81" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E33" s="81" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="8"/>
@@ -12556,10 +12112,10 @@
         <v>2005</v>
       </c>
       <c r="D34" s="44" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E34" s="81" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F34" s="46"/>
       <c r="G34" s="46"/>
@@ -12586,10 +12142,10 @@
         <v>2004</v>
       </c>
       <c r="D35" s="81" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E35" s="81" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -12614,10 +12170,10 @@
         <v>2005</v>
       </c>
       <c r="D36" s="81" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E36" s="81" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="71"/>
@@ -12642,10 +12198,10 @@
         <v>2005</v>
       </c>
       <c r="D37" s="81" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="123"/>
@@ -13460,15 +13016,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30" style="56" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" style="4" customWidth="1"/>
@@ -13479,54 +13035,54 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="95" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B1" s="96"/>
       <c r="C1" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="95" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="95" t="s">
-        <v>2</v>
       </c>
       <c r="F1" s="95"/>
       <c r="G1" s="96"/>
       <c r="H1" s="96"/>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="252" t="s">
+      <c r="A2" s="248" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="248" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="252" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="97" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="97" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E2" s="97" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F2" s="97" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G2" s="97" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H2" s="97" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="41" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B3" s="10">
         <v>2006</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D3" s="58">
         <v>7.2569444444444443E-3</v>
@@ -13538,13 +13094,13 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="9" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B4" s="8">
         <v>2006</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D4" s="58">
         <v>7.9861111111111122E-3</v>
@@ -13564,13 +13120,13 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="65" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B5" s="64">
         <v>2006</v>
       </c>
       <c r="C5" s="107" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D5" s="58">
         <v>8.5532407407407415E-3</v>
@@ -13588,13 +13144,13 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="70" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B6" s="69">
         <v>2007</v>
       </c>
       <c r="C6" s="70" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D6" s="58">
         <v>8.6805555555555559E-3</v>
@@ -13614,13 +13170,13 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="41" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B7" s="10">
         <v>2006</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D7" s="58">
         <v>8.6805555555555559E-3</v>
@@ -13632,13 +13188,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="60" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B8" s="19">
         <v>2007</v>
       </c>
       <c r="C8" s="65" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D8" s="58">
         <v>1.0474537037037037E-2</v>
@@ -13658,13 +13214,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="32" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B9" s="24">
         <v>2007</v>
       </c>
       <c r="C9" s="65" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D9" s="58">
         <v>1.0567129629629629E-2</v>
@@ -13676,13 +13232,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="23" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B10" s="69">
         <v>2007</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D10" s="58">
         <v>1.0601851851851854E-2</v>
@@ -13702,13 +13258,13 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="32" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B11" s="24">
         <v>2006</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D11" s="58">
         <v>1.1030092592592591E-2</v>
@@ -13720,13 +13276,13 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="41" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B12" s="24">
         <v>2006</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D12" s="58">
         <v>1.1574074074074075E-2</v>
@@ -13738,13 +13294,13 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="65" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B13" s="69">
         <v>2007</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D13" s="58">
         <v>1.1585648148148149E-2</v>
@@ -13756,13 +13312,13 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="41" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B14" s="10">
         <v>2007</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D14" s="58">
         <v>1.2615740740740742E-2</v>
@@ -13782,13 +13338,13 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="9" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B15" s="8">
         <v>2007</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D15" s="58">
         <v>1.2685185185185183E-2</v>
@@ -13809,13 +13365,13 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="41" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B16" s="10">
         <v>2007</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D16" s="58">
         <v>1.2881944444444446E-2</v>
@@ -13836,13 +13392,13 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="41" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B17" s="69">
         <v>2007</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D17" s="58">
         <v>1.4074074074074074E-2</v>
@@ -13857,13 +13413,13 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="41" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B18" s="66">
         <v>2006</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D18" s="58"/>
       <c r="E18" s="131">
@@ -13881,13 +13437,13 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="41" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B19" s="24">
         <v>2006</v>
       </c>
       <c r="C19" s="129" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D19" s="58"/>
       <c r="E19" s="131">
@@ -13905,13 +13461,13 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="41" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B20" s="69">
         <v>2006</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D20" s="57"/>
       <c r="E20" s="131">
@@ -13929,13 +13485,13 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="41" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B21" s="10">
         <v>2006</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D21" s="58"/>
       <c r="E21" s="131">
@@ -13953,13 +13509,13 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="41" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B22" s="10">
         <v>2006</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D22" s="58"/>
       <c r="E22" s="131">
@@ -13977,13 +13533,13 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="23" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B23" s="69">
         <v>2007</v>
       </c>
       <c r="C23" s="70" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D23" s="58"/>
       <c r="E23" s="104">
@@ -14001,13 +13557,13 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="60" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B24" s="69">
         <v>2007</v>
       </c>
       <c r="C24" s="70" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D24" s="59"/>
       <c r="E24" s="104">
@@ -14025,13 +13581,13 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="60" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B25" s="69">
         <v>2007</v>
       </c>
       <c r="C25" s="70" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D25" s="58"/>
       <c r="E25" s="104">
@@ -14049,13 +13605,13 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="65" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B26" s="64">
         <v>2009</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D26" s="58"/>
       <c r="E26" s="10">
@@ -14073,13 +13629,13 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="9" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B27" s="8">
         <v>2007</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D27" s="58"/>
       <c r="E27" s="10">
@@ -14097,13 +13653,13 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="41" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B28" s="10">
         <v>2007</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D28" s="58"/>
       <c r="E28" s="10">
@@ -14121,13 +13677,13 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="41" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B29" s="10">
         <v>2006</v>
       </c>
       <c r="C29" s="107" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D29" s="58"/>
       <c r="E29" s="10">
@@ -14141,13 +13697,13 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="32" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B30" s="24">
         <v>2006</v>
       </c>
       <c r="C30" s="107" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D30" s="58"/>
       <c r="E30" s="24">
@@ -14161,13 +13717,13 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="73" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B31" s="74">
         <v>2006</v>
       </c>
       <c r="C31" s="73" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D31" s="58"/>
       <c r="E31" s="74"/>
@@ -14184,13 +13740,13 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="76" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B32" s="77">
         <v>2006</v>
       </c>
       <c r="C32" s="73" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D32" s="58"/>
       <c r="E32" s="74"/>
@@ -14206,13 +13762,13 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="78" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B33" s="10">
         <v>2006</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D33" s="58"/>
       <c r="E33" s="10"/>
@@ -14228,13 +13784,13 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="60" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B34" s="19">
         <v>2007</v>
       </c>
       <c r="C34" s="60" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D34" s="57"/>
       <c r="E34" s="21"/>
@@ -14250,13 +13806,13 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="41" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B35" s="10">
         <v>2006</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D35" s="58"/>
       <c r="E35" s="10"/>
@@ -14272,13 +13828,13 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="41" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B36" s="10">
         <v>2006</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D36" s="58"/>
       <c r="E36" s="10">
@@ -14296,13 +13852,13 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="41" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B37" s="10">
         <v>2007</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D37" s="58"/>
       <c r="E37" s="10">
@@ -14320,13 +13876,13 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="65" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B38" s="64">
         <v>2006</v>
       </c>
       <c r="C38" s="65" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D38" s="58"/>
       <c r="E38" s="10">
@@ -14344,13 +13900,13 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="41" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B39" s="10">
         <v>2007</v>
       </c>
       <c r="C39" s="65" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D39" s="58"/>
       <c r="E39" s="10">
@@ -14652,13 +14208,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30" style="56" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" style="4" customWidth="1"/>
@@ -14669,14 +14225,14 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="108" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B1" s="96"/>
       <c r="C1" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="95" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="95" t="s">
-        <v>2</v>
       </c>
       <c r="E1" s="95"/>
       <c r="F1" s="95"/>
@@ -14684,40 +14240,40 @@
       <c r="H1" s="96"/>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="252" t="s">
+      <c r="A2" s="248" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="248" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="252" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="97" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="97" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E2" s="97" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F2" s="97" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G2" s="97" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H2" s="97" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="70" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B3" s="69">
         <v>2007</v>
       </c>
       <c r="C3" s="68" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D3" s="71">
         <v>0.57847222222222217</v>
@@ -14736,13 +14292,13 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="41" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B4" s="20">
         <v>2006</v>
       </c>
       <c r="C4" s="67" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D4" s="71">
         <v>0.57916666666666672</v>
@@ -14760,13 +14316,13 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="70" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B5" s="10">
         <v>2006</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D5" s="71">
         <v>0.59097222222222223</v>
@@ -14786,13 +14342,13 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="41" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B6" s="20">
         <v>2006</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D6" s="71">
         <v>0.61597222222222225</v>
@@ -14804,13 +14360,13 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="23" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B7" s="105">
         <v>2006</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D7" s="71">
         <v>0.61736111111111114</v>
@@ -14830,13 +14386,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="41" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B8" s="16">
         <v>2007</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D8" s="71">
         <v>0.64861111111111114</v>
@@ -14856,13 +14412,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="41" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B9" s="10">
         <v>2006</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -14878,13 +14434,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="23" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B10" s="64">
         <v>2007</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -14900,13 +14456,13 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="23" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B11" s="64">
         <v>2006</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10">
@@ -14924,13 +14480,13 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="41" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B12" s="10">
         <v>2007</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10">
@@ -14948,13 +14504,13 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="41" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B13" s="10">
         <v>2007</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10">
@@ -15161,21 +14717,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100AC82E144BE7817468342F0CF395E5D50" ma:contentTypeVersion="8" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="b3ab3a36065efda0b5630ffc36ef5666">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5eb4f450-37e3-492b-9f45-4f8dc02c8c6c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="976ca3ce804b0f308bb320089578cc42" ns2:_="">
     <xsd:import namespace="5eb4f450-37e3-492b-9f45-4f8dc02c8c6c"/>
@@ -15345,14 +14886,52 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22E1112A-1A3A-4D2C-8449-814DE6FD2325}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B5CC34F-6602-4D28-BDE0-369C48E0EF9C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5eb4f450-37e3-492b-9f45-4f8dc02c8c6c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A5DD1A5-28FC-4377-AFCF-30B87DF7C4E3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A5DD1A5-28FC-4377-AFCF-30B87DF7C4E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B5CC34F-6602-4D28-BDE0-369C48E0EF9C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22E1112A-1A3A-4D2C-8449-814DE6FD2325}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>